--- a/wcsm8seleniumproject/data/ActiTimeExcelSheet.xlsx
+++ b/wcsm8seleniumproject/data/ActiTimeExcelSheet.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CA86AD81-82FA-40B2-9856-002ECDB8A382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProject_Repository\wcsm8seleniumproject\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9396128-B5A5-455E-9B79-D7AC3A17D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreads" sheetId="2" r:id="rId2"/>
+    <sheet name="userdata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>USERNAME</t>
   </si>
@@ -76,6 +81,24 @@
   </si>
   <si>
     <t>mana@ger</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>TEST_ENGG1</t>
+  </si>
+  <si>
+    <t>Devloper</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -464,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106165E7-AF44-4E24-AE7A-FBAFC12F608B}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -551,4 +574,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D968C842-D472-4907-8FB0-5A9BF29EDB9A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wcsm8seleniumproject/data/ActiTimeExcelSheet.xlsx
+++ b/wcsm8seleniumproject/data/ActiTimeExcelSheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\SeleniumProject_Repository\wcsm8seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9396128-B5A5-455E-9B79-D7AC3A17D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE5C4CB-AAC5-4696-9C7C-F45D7CE72A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreads" sheetId="2" r:id="rId2"/>
     <sheet name="userdata" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>USERNAME</t>
   </si>
@@ -99,6 +100,42 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>usn1</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>usn2</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>n1</t>
   </si>
 </sst>
 </file>
@@ -580,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D968C842-D472-4907-8FB0-5A9BF29EDB9A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -623,4 +660,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA3F249-C7BD-4846-B601-4AF8331D37D5}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>